--- a/DANH SACH DAM CUOI.xlsx
+++ b/DANH SACH DAM CUOI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -52,13 +52,25 @@
   </si>
   <si>
     <t>OANH A8</t>
+  </si>
+  <si>
+    <t>Ý 9D</t>
+  </si>
+  <si>
+    <t>Anh Sơn 3I</t>
+  </si>
+  <si>
+    <t>Thuận Mách 9D</t>
+  </si>
+  <si>
+    <t>Chị Yến 9D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,17 +92,28 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="13.5"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="13.5"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -149,24 +172,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,40 +514,40 @@
   <dimension ref="G3:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="9.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="5" t="s">
+    <row r="3" spans="7:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="7:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G5" s="3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="7:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="7:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G6" s="2">
         <v>1</v>
       </c>
@@ -530,7 +556,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G7" s="2">
         <v>2</v>
       </c>
@@ -539,7 +565,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G8" s="2">
         <v>3</v>
       </c>
@@ -548,7 +574,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G9" s="2">
         <v>4</v>
       </c>
@@ -557,7 +583,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G10" s="2">
         <v>5</v>
       </c>
@@ -566,7 +592,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G11" s="2">
         <v>6</v>
       </c>
@@ -575,7 +601,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G12" s="2">
         <v>7</v>
       </c>
@@ -584,217 +610,225 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G13" s="2">
         <v>8</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G14" s="2">
         <v>9</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G16" s="2">
         <v>11</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G17" s="2">
         <v>12</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G18" s="2">
         <v>13</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G19" s="2">
         <v>14</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G20" s="2">
         <v>15</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G21" s="2">
         <v>16</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G22" s="2">
         <v>17</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G23" s="2">
         <v>18</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G24" s="2">
         <v>19</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G25" s="2">
         <v>20</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G26" s="2">
         <v>21</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G27" s="2">
         <v>22</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G28" s="2">
         <v>23</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G29" s="2">
         <v>24</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G30" s="2">
         <v>25</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G31" s="2">
         <v>26</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G32" s="2">
         <v>27</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G33" s="2">
         <v>28</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G34" s="2">
         <v>29</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G35" s="2">
         <v>30</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G36" s="2">
         <v>31</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G37" s="2">
         <v>32</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G38" s="2">
         <v>33</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G39" s="2">
         <v>34</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G40" s="2">
         <v>35</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G41" s="2">
         <v>36</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G42" s="2">
         <v>37</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G43" s="2">
         <v>38</v>
       </c>
